--- a/data/536/BIDN/SEKI/BPM6_historical - Quarterly.xlsx
+++ b/data/536/BIDN/SEKI/BPM6_historical - Quarterly.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BPM6" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,542 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
-  <si>
-    <t>1981-Q1</t>
-  </si>
-  <si>
-    <t>1981-Q2</t>
-  </si>
-  <si>
-    <t>1981-Q3</t>
-  </si>
-  <si>
-    <t>1981-Q4</t>
-  </si>
-  <si>
-    <t>1982-Q1</t>
-  </si>
-  <si>
-    <t>1982-Q2</t>
-  </si>
-  <si>
-    <t>1982-Q3</t>
-  </si>
-  <si>
-    <t>1982-Q4</t>
-  </si>
-  <si>
-    <t>1983-Q1</t>
-  </si>
-  <si>
-    <t>1983-Q2</t>
-  </si>
-  <si>
-    <t>1983-Q3</t>
-  </si>
-  <si>
-    <t>1983-Q4</t>
-  </si>
-  <si>
-    <t>1984-Q1</t>
-  </si>
-  <si>
-    <t>1984-Q2</t>
-  </si>
-  <si>
-    <t>1984-Q3</t>
-  </si>
-  <si>
-    <t>1984-Q4</t>
-  </si>
-  <si>
-    <t>1985-Q1</t>
-  </si>
-  <si>
-    <t>1985-Q2</t>
-  </si>
-  <si>
-    <t>1985-Q3</t>
-  </si>
-  <si>
-    <t>1985-Q4</t>
-  </si>
-  <si>
-    <t>1986-Q1</t>
-  </si>
-  <si>
-    <t>1986-Q2</t>
-  </si>
-  <si>
-    <t>1986-Q3</t>
-  </si>
-  <si>
-    <t>1986-Q4</t>
-  </si>
-  <si>
-    <t>1987-Q1</t>
-  </si>
-  <si>
-    <t>1987-Q2</t>
-  </si>
-  <si>
-    <t>1987-Q3</t>
-  </si>
-  <si>
-    <t>1987-Q4</t>
-  </si>
-  <si>
-    <t>1988-Q1</t>
-  </si>
-  <si>
-    <t>1988-Q2</t>
-  </si>
-  <si>
-    <t>1988-Q3</t>
-  </si>
-  <si>
-    <t>1988-Q4</t>
-  </si>
-  <si>
-    <t>1989-Q1</t>
-  </si>
-  <si>
-    <t>1989-Q2</t>
-  </si>
-  <si>
-    <t>1989-Q3</t>
-  </si>
-  <si>
-    <t>1989-Q4</t>
-  </si>
-  <si>
-    <t>1990-Q1</t>
-  </si>
-  <si>
-    <t>1990-Q2</t>
-  </si>
-  <si>
-    <t>1990-Q3</t>
-  </si>
-  <si>
-    <t>1990-Q4</t>
-  </si>
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>Current Account</t>
-  </si>
-  <si>
-    <t>Exports</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Primary Income</t>
-  </si>
-  <si>
-    <t>Secondary Income</t>
-  </si>
-  <si>
-    <t>Capital Account</t>
-  </si>
-  <si>
-    <t>Financial Account</t>
-  </si>
-  <si>
-    <t>Direct Investment</t>
-  </si>
-  <si>
-    <t>Portfolio Investment</t>
-  </si>
-  <si>
-    <t>Other Investment</t>
-  </si>
-  <si>
-    <t>Net Error and Omissions</t>
-  </si>
-  <si>
-    <t>Overall Balance</t>
-  </si>
-  <si>
-    <t>Reserve Assets Position</t>
-  </si>
-  <si>
-    <t>Goods and Services</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,593 +366,921 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:164">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:164">
-      <c r="A2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
-      <c r="Z2" t="s"/>
-      <c r="AA2" t="s"/>
-      <c r="AB2" t="s"/>
-      <c r="AC2" t="s"/>
-      <c r="AD2" t="s"/>
-      <c r="AE2" t="s"/>
-      <c r="AF2" t="s"/>
-      <c r="AG2" t="s"/>
-      <c r="AH2" t="s"/>
-      <c r="AI2" t="s"/>
-      <c r="AJ2" t="s"/>
-      <c r="AK2" t="s"/>
-      <c r="AL2" t="s"/>
-      <c r="AM2" t="s"/>
-      <c r="AN2" t="s"/>
-      <c r="AO2" t="s"/>
-      <c r="AP2" t="s"/>
-      <c r="AQ2" t="s"/>
-      <c r="AR2" t="s"/>
-      <c r="AS2" t="s"/>
-      <c r="AT2" t="s"/>
-      <c r="AU2" t="s"/>
-      <c r="AV2" t="s"/>
-      <c r="AW2" t="s"/>
-      <c r="AX2" t="s"/>
-      <c r="AY2" t="s"/>
-      <c r="AZ2" t="s"/>
-      <c r="BA2" t="s"/>
-      <c r="BB2" t="s"/>
-      <c r="BC2" t="s"/>
-      <c r="BD2" t="s"/>
-      <c r="BE2" t="s"/>
-      <c r="BF2" t="s"/>
-      <c r="BG2" t="s"/>
-      <c r="BH2" t="s"/>
-      <c r="BI2" t="s"/>
-      <c r="BJ2" t="s"/>
-      <c r="BK2" t="s"/>
-      <c r="BL2" t="s"/>
-      <c r="BM2" t="s"/>
-      <c r="BN2" t="s"/>
-      <c r="BO2" t="s"/>
-      <c r="BP2" t="s"/>
-      <c r="BQ2" t="s"/>
-      <c r="BR2" t="s"/>
-      <c r="BS2" t="s"/>
-      <c r="BT2" t="s"/>
-      <c r="BU2" t="s"/>
-      <c r="BV2" t="s"/>
-      <c r="BW2" t="s"/>
-      <c r="BX2" t="s"/>
-      <c r="BY2" t="s"/>
-      <c r="BZ2" t="s"/>
-      <c r="CA2" t="s"/>
-      <c r="CB2" t="s"/>
-      <c r="CC2" t="s"/>
-      <c r="CD2" t="s"/>
-      <c r="CE2" t="s"/>
-      <c r="CF2" t="s"/>
-      <c r="CG2" t="s"/>
-      <c r="CH2" t="s"/>
-      <c r="CI2" t="s"/>
-      <c r="CJ2" t="s"/>
-      <c r="CK2" t="s"/>
-      <c r="CL2" t="s"/>
-      <c r="CM2" t="s"/>
-      <c r="CN2" t="s"/>
-      <c r="CO2" t="s"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Current Account</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
+      <c r="CE2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr"/>
+      <c r="CG2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="inlineStr"/>
+      <c r="CL2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
       <c r="CP2" t="n">
         <v>-1992.11</v>
       </c>
@@ -1703,9 +1495,11 @@
         <v>4474.250168484176</v>
       </c>
     </row>
-    <row r="3" spans="1:164">
-      <c r="A3" s="1" t="s">
-        <v>164</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Exports</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>5516</v>
@@ -2197,94 +1991,96 @@
         <v>61736.81741260135</v>
       </c>
     </row>
-    <row r="4" spans="1:164">
-      <c r="A4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
-      <c r="Z4" t="s"/>
-      <c r="AA4" t="s"/>
-      <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="s"/>
-      <c r="AY4" t="s"/>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="s"/>
-      <c r="BB4" t="s"/>
-      <c r="BC4" t="s"/>
-      <c r="BD4" t="s"/>
-      <c r="BE4" t="s"/>
-      <c r="BF4" t="s"/>
-      <c r="BG4" t="s"/>
-      <c r="BH4" t="s"/>
-      <c r="BI4" t="s"/>
-      <c r="BJ4" t="s"/>
-      <c r="BK4" t="s"/>
-      <c r="BL4" t="s"/>
-      <c r="BM4" t="s"/>
-      <c r="BN4" t="s"/>
-      <c r="BO4" t="s"/>
-      <c r="BP4" t="s"/>
-      <c r="BQ4" t="s"/>
-      <c r="BR4" t="s"/>
-      <c r="BS4" t="s"/>
-      <c r="BT4" t="s"/>
-      <c r="BU4" t="s"/>
-      <c r="BV4" t="s"/>
-      <c r="BW4" t="s"/>
-      <c r="BX4" t="s"/>
-      <c r="BY4" t="s"/>
-      <c r="BZ4" t="s"/>
-      <c r="CA4" t="s"/>
-      <c r="CB4" t="s"/>
-      <c r="CC4" t="s"/>
-      <c r="CD4" t="s"/>
-      <c r="CE4" t="s"/>
-      <c r="CF4" t="s"/>
-      <c r="CG4" t="s"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="n">
         <v>-2413</v>
       </c>
@@ -2523,9 +2319,11 @@
         <v>-3633.788406452107</v>
       </c>
     </row>
-    <row r="5" spans="1:164">
-      <c r="A5" s="1" t="s">
-        <v>166</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Primary Income</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>-750</v>
@@ -3017,9 +2815,11 @@
         <v>-8336.625041933397</v>
       </c>
     </row>
-    <row r="6" spans="1:164">
-      <c r="A6" s="1" t="s">
-        <v>167</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Secondary Income</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>61</v>
@@ -3511,102 +3311,104 @@
         <v>1417.459313535474</v>
       </c>
     </row>
-    <row r="7" spans="1:164">
-      <c r="A7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="s"/>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
-      <c r="Z7" t="s"/>
-      <c r="AA7" t="s"/>
-      <c r="AB7" t="s"/>
-      <c r="AC7" t="s"/>
-      <c r="AD7" t="s"/>
-      <c r="AE7" t="s"/>
-      <c r="AF7" t="s"/>
-      <c r="AG7" t="s"/>
-      <c r="AH7" t="s"/>
-      <c r="AI7" t="s"/>
-      <c r="AJ7" t="s"/>
-      <c r="AK7" t="s"/>
-      <c r="AL7" t="s"/>
-      <c r="AM7" t="s"/>
-      <c r="AN7" t="s"/>
-      <c r="AO7" t="s"/>
-      <c r="AP7" t="s"/>
-      <c r="AQ7" t="s"/>
-      <c r="AR7" t="s"/>
-      <c r="AS7" t="s"/>
-      <c r="AT7" t="s"/>
-      <c r="AU7" t="s"/>
-      <c r="AV7" t="s"/>
-      <c r="AW7" t="s"/>
-      <c r="AX7" t="s"/>
-      <c r="AY7" t="s"/>
-      <c r="AZ7" t="s"/>
-      <c r="BA7" t="s"/>
-      <c r="BB7" t="s"/>
-      <c r="BC7" t="s"/>
-      <c r="BD7" t="s"/>
-      <c r="BE7" t="s"/>
-      <c r="BF7" t="s"/>
-      <c r="BG7" t="s"/>
-      <c r="BH7" t="s"/>
-      <c r="BI7" t="s"/>
-      <c r="BJ7" t="s"/>
-      <c r="BK7" t="s"/>
-      <c r="BL7" t="s"/>
-      <c r="BM7" t="s"/>
-      <c r="BN7" t="s"/>
-      <c r="BO7" t="s"/>
-      <c r="BP7" t="s"/>
-      <c r="BQ7" t="s"/>
-      <c r="BR7" t="s"/>
-      <c r="BS7" t="s"/>
-      <c r="BT7" t="s"/>
-      <c r="BU7" t="s"/>
-      <c r="BV7" t="s"/>
-      <c r="BW7" t="s"/>
-      <c r="BX7" t="s"/>
-      <c r="BY7" t="s"/>
-      <c r="BZ7" t="s"/>
-      <c r="CA7" t="s"/>
-      <c r="CB7" t="s"/>
-      <c r="CC7" t="s"/>
-      <c r="CD7" t="s"/>
-      <c r="CE7" t="s"/>
-      <c r="CF7" t="s"/>
-      <c r="CG7" t="s"/>
-      <c r="CH7" t="s"/>
-      <c r="CI7" t="s"/>
-      <c r="CJ7" t="s"/>
-      <c r="CK7" t="s"/>
-      <c r="CL7" t="s"/>
-      <c r="CM7" t="s"/>
-      <c r="CN7" t="s"/>
-      <c r="CO7" t="s"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Capital Account</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
+      <c r="CE7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr"/>
+      <c r="CH7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr"/>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr"/>
+      <c r="CM7" t="inlineStr"/>
+      <c r="CN7" t="inlineStr"/>
+      <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="n">
         <v>0</v>
       </c>
@@ -3821,9 +3623,11 @@
         <v>9.49192616132752</v>
       </c>
     </row>
-    <row r="8" spans="1:164">
-      <c r="A8" s="1" t="s">
-        <v>169</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Financial Account</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>134</v>
@@ -4315,9 +4119,11 @@
         <v>6087.055018945379</v>
       </c>
     </row>
-    <row r="9" spans="1:164">
-      <c r="A9" s="1" t="s">
-        <v>170</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Direct Investment</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>31</v>
@@ -4809,58 +4615,60 @@
         <v>3281.1588789476</v>
       </c>
     </row>
-    <row r="10" spans="1:164">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
-      <c r="Z10" t="s"/>
-      <c r="AA10" t="s"/>
-      <c r="AB10" t="s"/>
-      <c r="AC10" t="s"/>
-      <c r="AD10" t="s"/>
-      <c r="AE10" t="s"/>
-      <c r="AF10" t="s"/>
-      <c r="AG10" t="s"/>
-      <c r="AH10" t="s"/>
-      <c r="AI10" t="s"/>
-      <c r="AJ10" t="s"/>
-      <c r="AK10" t="s"/>
-      <c r="AL10" t="s"/>
-      <c r="AM10" t="s"/>
-      <c r="AN10" t="s"/>
-      <c r="AO10" t="s"/>
-      <c r="AP10" t="s"/>
-      <c r="AQ10" t="s"/>
-      <c r="AR10" t="s"/>
-      <c r="AS10" t="s"/>
-      <c r="AT10" t="s"/>
-      <c r="AU10" t="s"/>
-      <c r="AV10" t="s"/>
-      <c r="AW10" t="s"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Portfolio Investment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
         <v>325</v>
       </c>
@@ -5207,94 +5015,96 @@
         <v>1143.985896433788</v>
       </c>
     </row>
-    <row r="11" spans="1:164">
-      <c r="A11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-      <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
-      <c r="V11" t="s"/>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
-      <c r="Z11" t="s"/>
-      <c r="AA11" t="s"/>
-      <c r="AB11" t="s"/>
-      <c r="AC11" t="s"/>
-      <c r="AD11" t="s"/>
-      <c r="AE11" t="s"/>
-      <c r="AF11" t="s"/>
-      <c r="AG11" t="s"/>
-      <c r="AH11" t="s"/>
-      <c r="AI11" t="s"/>
-      <c r="AJ11" t="s"/>
-      <c r="AK11" t="s"/>
-      <c r="AL11" t="s"/>
-      <c r="AM11" t="s"/>
-      <c r="AN11" t="s"/>
-      <c r="AO11" t="s"/>
-      <c r="AP11" t="s"/>
-      <c r="AQ11" t="s"/>
-      <c r="AR11" t="s"/>
-      <c r="AS11" t="s"/>
-      <c r="AT11" t="s"/>
-      <c r="AU11" t="s"/>
-      <c r="AV11" t="s"/>
-      <c r="AW11" t="s"/>
-      <c r="AX11" t="s"/>
-      <c r="AY11" t="s"/>
-      <c r="AZ11" t="s"/>
-      <c r="BA11" t="s"/>
-      <c r="BB11" t="s"/>
-      <c r="BC11" t="s"/>
-      <c r="BD11" t="s"/>
-      <c r="BE11" t="s"/>
-      <c r="BF11" t="s"/>
-      <c r="BG11" t="s"/>
-      <c r="BH11" t="s"/>
-      <c r="BI11" t="s"/>
-      <c r="BJ11" t="s"/>
-      <c r="BK11" t="s"/>
-      <c r="BL11" t="s"/>
-      <c r="BM11" t="s"/>
-      <c r="BN11" t="s"/>
-      <c r="BO11" t="s"/>
-      <c r="BP11" t="s"/>
-      <c r="BQ11" t="s"/>
-      <c r="BR11" t="s"/>
-      <c r="BS11" t="s"/>
-      <c r="BT11" t="s"/>
-      <c r="BU11" t="s"/>
-      <c r="BV11" t="s"/>
-      <c r="BW11" t="s"/>
-      <c r="BX11" t="s"/>
-      <c r="BY11" t="s"/>
-      <c r="BZ11" t="s"/>
-      <c r="CA11" t="s"/>
-      <c r="CB11" t="s"/>
-      <c r="CC11" t="s"/>
-      <c r="CD11" t="s"/>
-      <c r="CE11" t="s"/>
-      <c r="CF11" t="s"/>
-      <c r="CG11" t="s"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Other Investment</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="n">
         <v>-840</v>
       </c>
@@ -5533,94 +5343,96 @@
         <v>1489.667550433593</v>
       </c>
     </row>
-    <row r="12" spans="1:164">
-      <c r="A12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="s"/>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
-      <c r="Z12" t="s"/>
-      <c r="AA12" t="s"/>
-      <c r="AB12" t="s"/>
-      <c r="AC12" t="s"/>
-      <c r="AD12" t="s"/>
-      <c r="AE12" t="s"/>
-      <c r="AF12" t="s"/>
-      <c r="AG12" t="s"/>
-      <c r="AH12" t="s"/>
-      <c r="AI12" t="s"/>
-      <c r="AJ12" t="s"/>
-      <c r="AK12" t="s"/>
-      <c r="AL12" t="s"/>
-      <c r="AM12" t="s"/>
-      <c r="AN12" t="s"/>
-      <c r="AO12" t="s"/>
-      <c r="AP12" t="s"/>
-      <c r="AQ12" t="s"/>
-      <c r="AR12" t="s"/>
-      <c r="AS12" t="s"/>
-      <c r="AT12" t="s"/>
-      <c r="AU12" t="s"/>
-      <c r="AV12" t="s"/>
-      <c r="AW12" t="s"/>
-      <c r="AX12" t="s"/>
-      <c r="AY12" t="s"/>
-      <c r="AZ12" t="s"/>
-      <c r="BA12" t="s"/>
-      <c r="BB12" t="s"/>
-      <c r="BC12" t="s"/>
-      <c r="BD12" t="s"/>
-      <c r="BE12" t="s"/>
-      <c r="BF12" t="s"/>
-      <c r="BG12" t="s"/>
-      <c r="BH12" t="s"/>
-      <c r="BI12" t="s"/>
-      <c r="BJ12" t="s"/>
-      <c r="BK12" t="s"/>
-      <c r="BL12" t="s"/>
-      <c r="BM12" t="s"/>
-      <c r="BN12" t="s"/>
-      <c r="BO12" t="s"/>
-      <c r="BP12" t="s"/>
-      <c r="BQ12" t="s"/>
-      <c r="BR12" t="s"/>
-      <c r="BS12" t="s"/>
-      <c r="BT12" t="s"/>
-      <c r="BU12" t="s"/>
-      <c r="BV12" t="s"/>
-      <c r="BW12" t="s"/>
-      <c r="BX12" t="s"/>
-      <c r="BY12" t="s"/>
-      <c r="BZ12" t="s"/>
-      <c r="CA12" t="s"/>
-      <c r="CB12" t="s"/>
-      <c r="CC12" t="s"/>
-      <c r="CD12" t="s"/>
-      <c r="CE12" t="s"/>
-      <c r="CF12" t="s"/>
-      <c r="CG12" t="s"/>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Net Error and Omissions</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr"/>
+      <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="n">
         <v>-139</v>
       </c>
@@ -5859,102 +5671,104 @@
         <v>119.3319021586267</v>
       </c>
     </row>
-    <row r="13" spans="1:164">
-      <c r="A13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
-      <c r="AD13" t="s"/>
-      <c r="AE13" t="s"/>
-      <c r="AF13" t="s"/>
-      <c r="AG13" t="s"/>
-      <c r="AH13" t="s"/>
-      <c r="AI13" t="s"/>
-      <c r="AJ13" t="s"/>
-      <c r="AK13" t="s"/>
-      <c r="AL13" t="s"/>
-      <c r="AM13" t="s"/>
-      <c r="AN13" t="s"/>
-      <c r="AO13" t="s"/>
-      <c r="AP13" t="s"/>
-      <c r="AQ13" t="s"/>
-      <c r="AR13" t="s"/>
-      <c r="AS13" t="s"/>
-      <c r="AT13" t="s"/>
-      <c r="AU13" t="s"/>
-      <c r="AV13" t="s"/>
-      <c r="AW13" t="s"/>
-      <c r="AX13" t="s"/>
-      <c r="AY13" t="s"/>
-      <c r="AZ13" t="s"/>
-      <c r="BA13" t="s"/>
-      <c r="BB13" t="s"/>
-      <c r="BC13" t="s"/>
-      <c r="BD13" t="s"/>
-      <c r="BE13" t="s"/>
-      <c r="BF13" t="s"/>
-      <c r="BG13" t="s"/>
-      <c r="BH13" t="s"/>
-      <c r="BI13" t="s"/>
-      <c r="BJ13" t="s"/>
-      <c r="BK13" t="s"/>
-      <c r="BL13" t="s"/>
-      <c r="BM13" t="s"/>
-      <c r="BN13" t="s"/>
-      <c r="BO13" t="s"/>
-      <c r="BP13" t="s"/>
-      <c r="BQ13" t="s"/>
-      <c r="BR13" t="s"/>
-      <c r="BS13" t="s"/>
-      <c r="BT13" t="s"/>
-      <c r="BU13" t="s"/>
-      <c r="BV13" t="s"/>
-      <c r="BW13" t="s"/>
-      <c r="BX13" t="s"/>
-      <c r="BY13" t="s"/>
-      <c r="BZ13" t="s"/>
-      <c r="CA13" t="s"/>
-      <c r="CB13" t="s"/>
-      <c r="CC13" t="s"/>
-      <c r="CD13" t="s"/>
-      <c r="CE13" t="s"/>
-      <c r="CF13" t="s"/>
-      <c r="CG13" t="s"/>
-      <c r="CH13" t="s"/>
-      <c r="CI13" t="s"/>
-      <c r="CJ13" t="s"/>
-      <c r="CK13" t="s"/>
-      <c r="CL13" t="s"/>
-      <c r="CM13" t="s"/>
-      <c r="CN13" t="s"/>
-      <c r="CO13" t="s"/>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Overall Balance</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
+      <c r="CE13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr"/>
+      <c r="CG13" t="inlineStr"/>
+      <c r="CH13" t="inlineStr"/>
+      <c r="CI13" t="inlineStr"/>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr"/>
+      <c r="CM13" t="inlineStr"/>
+      <c r="CN13" t="inlineStr"/>
+      <c r="CO13" t="inlineStr"/>
       <c r="CP13" t="n">
         <v>1352.82</v>
       </c>
@@ -6169,94 +5983,96 @@
         <v>10690.12901574951</v>
       </c>
     </row>
-    <row r="14" spans="1:164">
-      <c r="A14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
-      <c r="D14" t="s"/>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
-      <c r="AD14" t="s"/>
-      <c r="AE14" t="s"/>
-      <c r="AF14" t="s"/>
-      <c r="AG14" t="s"/>
-      <c r="AH14" t="s"/>
-      <c r="AI14" t="s"/>
-      <c r="AJ14" t="s"/>
-      <c r="AK14" t="s"/>
-      <c r="AL14" t="s"/>
-      <c r="AM14" t="s"/>
-      <c r="AN14" t="s"/>
-      <c r="AO14" t="s"/>
-      <c r="AP14" t="s"/>
-      <c r="AQ14" t="s"/>
-      <c r="AR14" t="s"/>
-      <c r="AS14" t="s"/>
-      <c r="AT14" t="s"/>
-      <c r="AU14" t="s"/>
-      <c r="AV14" t="s"/>
-      <c r="AW14" t="s"/>
-      <c r="AX14" t="s"/>
-      <c r="AY14" t="s"/>
-      <c r="AZ14" t="s"/>
-      <c r="BA14" t="s"/>
-      <c r="BB14" t="s"/>
-      <c r="BC14" t="s"/>
-      <c r="BD14" t="s"/>
-      <c r="BE14" t="s"/>
-      <c r="BF14" t="s"/>
-      <c r="BG14" t="s"/>
-      <c r="BH14" t="s"/>
-      <c r="BI14" t="s"/>
-      <c r="BJ14" t="s"/>
-      <c r="BK14" t="s"/>
-      <c r="BL14" t="s"/>
-      <c r="BM14" t="s"/>
-      <c r="BN14" t="s"/>
-      <c r="BO14" t="s"/>
-      <c r="BP14" t="s"/>
-      <c r="BQ14" t="s"/>
-      <c r="BR14" t="s"/>
-      <c r="BS14" t="s"/>
-      <c r="BT14" t="s"/>
-      <c r="BU14" t="s"/>
-      <c r="BV14" t="s"/>
-      <c r="BW14" t="s"/>
-      <c r="BX14" t="s"/>
-      <c r="BY14" t="s"/>
-      <c r="BZ14" t="s"/>
-      <c r="CA14" t="s"/>
-      <c r="CB14" t="s"/>
-      <c r="CC14" t="s"/>
-      <c r="CD14" t="s"/>
-      <c r="CE14" t="s"/>
-      <c r="CF14" t="s"/>
-      <c r="CG14" t="s"/>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Reserve Assets Position</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="inlineStr"/>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
+      <c r="CE14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="n">
         <v>28004</v>
       </c>
@@ -6495,102 +6311,104 @@
         <v>146869.9899999999</v>
       </c>
     </row>
-    <row r="15" spans="1:164">
-      <c r="A15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
-      <c r="AD15" t="s"/>
-      <c r="AE15" t="s"/>
-      <c r="AF15" t="s"/>
-      <c r="AG15" t="s"/>
-      <c r="AH15" t="s"/>
-      <c r="AI15" t="s"/>
-      <c r="AJ15" t="s"/>
-      <c r="AK15" t="s"/>
-      <c r="AL15" t="s"/>
-      <c r="AM15" t="s"/>
-      <c r="AN15" t="s"/>
-      <c r="AO15" t="s"/>
-      <c r="AP15" t="s"/>
-      <c r="AQ15" t="s"/>
-      <c r="AR15" t="s"/>
-      <c r="AS15" t="s"/>
-      <c r="AT15" t="s"/>
-      <c r="AU15" t="s"/>
-      <c r="AV15" t="s"/>
-      <c r="AW15" t="s"/>
-      <c r="AX15" t="s"/>
-      <c r="AY15" t="s"/>
-      <c r="AZ15" t="s"/>
-      <c r="BA15" t="s"/>
-      <c r="BB15" t="s"/>
-      <c r="BC15" t="s"/>
-      <c r="BD15" t="s"/>
-      <c r="BE15" t="s"/>
-      <c r="BF15" t="s"/>
-      <c r="BG15" t="s"/>
-      <c r="BH15" t="s"/>
-      <c r="BI15" t="s"/>
-      <c r="BJ15" t="s"/>
-      <c r="BK15" t="s"/>
-      <c r="BL15" t="s"/>
-      <c r="BM15" t="s"/>
-      <c r="BN15" t="s"/>
-      <c r="BO15" t="s"/>
-      <c r="BP15" t="s"/>
-      <c r="BQ15" t="s"/>
-      <c r="BR15" t="s"/>
-      <c r="BS15" t="s"/>
-      <c r="BT15" t="s"/>
-      <c r="BU15" t="s"/>
-      <c r="BV15" t="s"/>
-      <c r="BW15" t="s"/>
-      <c r="BX15" t="s"/>
-      <c r="BY15" t="s"/>
-      <c r="BZ15" t="s"/>
-      <c r="CA15" t="s"/>
-      <c r="CB15" t="s"/>
-      <c r="CC15" t="s"/>
-      <c r="CD15" t="s"/>
-      <c r="CE15" t="s"/>
-      <c r="CF15" t="s"/>
-      <c r="CG15" t="s"/>
-      <c r="CH15" t="s"/>
-      <c r="CI15" t="s"/>
-      <c r="CJ15" t="s"/>
-      <c r="CK15" t="s"/>
-      <c r="CL15" t="s"/>
-      <c r="CM15" t="s"/>
-      <c r="CN15" t="s"/>
-      <c r="CO15" t="s"/>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Goods and Services</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
+      <c r="CE15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr"/>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
       <c r="CP15" t="n">
         <v>15.56</v>
       </c>

--- a/data/536/BIDN/SEKI/BPM6_historical - Quarterly.xlsx
+++ b/data/536/BIDN/SEKI/BPM6_historical - Quarterly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH15"/>
+  <dimension ref="A1:FI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,6 +1180,11 @@
       <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
     </row>
@@ -1474,25 +1479,28 @@
         <v>-8048.438826760123</v>
       </c>
       <c r="FB2" t="n">
-        <v>-3453.41538783258</v>
+        <v>-3366.708106504654</v>
       </c>
       <c r="FC2" t="n">
-        <v>-2883.213419715997</v>
+        <v>-2913.208588530237</v>
       </c>
       <c r="FD2" t="n">
-        <v>1002.718094551138</v>
+        <v>996.5862412069841</v>
       </c>
       <c r="FE2" t="n">
-        <v>846.7402276061089</v>
+        <v>850.0607153400683</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1074.838141829741</v>
+        <v>-1095.304684165479</v>
       </c>
       <c r="FG2" t="n">
-        <v>-1964.843556776199</v>
+        <v>-1964.230437706947</v>
       </c>
       <c r="FH2" t="n">
-        <v>4474.250168484176</v>
+        <v>4970.157568577401</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1415.285748385039</v>
       </c>
     </row>
     <row r="3">
@@ -1970,13 +1978,13 @@
         <v>43363.82474154825</v>
       </c>
       <c r="FB3" t="n">
-        <v>41737.27500338461</v>
+        <v>41779.1434003446</v>
       </c>
       <c r="FC3" t="n">
-        <v>34627.03261926632</v>
+        <v>34627.03261923633</v>
       </c>
       <c r="FD3" t="n">
-        <v>40803.85931827535</v>
+        <v>40804.51782757534</v>
       </c>
       <c r="FE3" t="n">
         <v>46191.11188065905</v>
@@ -1988,7 +1996,10 @@
         <v>54320.73758324059</v>
       </c>
       <c r="FH3" t="n">
-        <v>61736.81741260135</v>
+        <v>61650.63827913998</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>67486.2779074174</v>
       </c>
     </row>
     <row r="4">
@@ -2298,25 +2309,28 @@
         <v>-2004.075920470197</v>
       </c>
       <c r="FB4" t="n">
-        <v>-1740.075934443134</v>
+        <v>-1735.093141352861</v>
       </c>
       <c r="FC4" t="n">
-        <v>-2117.591430651441</v>
+        <v>-2147.586599549816</v>
       </c>
       <c r="FD4" t="n">
-        <v>-2760.580380137549</v>
+        <v>-2767.997037997106</v>
       </c>
       <c r="FE4" t="n">
-        <v>-3108.125243191971</v>
+        <v>-3104.804755458012</v>
       </c>
       <c r="FF4" t="n">
-        <v>-3389.212233992851</v>
+        <v>-3410.968449816437</v>
       </c>
       <c r="FG4" t="n">
-        <v>-3713.094814692279</v>
+        <v>-3713.839927456361</v>
       </c>
       <c r="FH4" t="n">
-        <v>-3633.788406452107</v>
+        <v>-3580.900372882107</v>
+      </c>
+      <c r="FI4" t="n">
+        <v>-4078.237188410177</v>
       </c>
     </row>
     <row r="5">
@@ -2806,13 +2820,16 @@
         <v>-7442.032691858138</v>
       </c>
       <c r="FF5" t="n">
-        <v>-6745.48678274423</v>
+        <v>-6744.197109256381</v>
       </c>
       <c r="FG5" t="n">
-        <v>-8053.505250124977</v>
+        <v>-8052.147018291644</v>
       </c>
       <c r="FH5" t="n">
-        <v>-8336.625041933397</v>
+        <v>-8274.42391747528</v>
+      </c>
+      <c r="FI5" t="n">
+        <v>-8889.229597605534</v>
       </c>
     </row>
     <row r="6">
@@ -3308,7 +3325,10 @@
         <v>1464.761872841206</v>
       </c>
       <c r="FH6" t="n">
-        <v>1417.459313535474</v>
+        <v>1417.429663607913</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>1949.973061925723</v>
       </c>
     </row>
     <row r="7">
@@ -3614,13 +3634,16 @@
         <v>23.78850267866538</v>
       </c>
       <c r="FF7" t="n">
-        <v>2.2</v>
+        <v>2.211783753022678</v>
       </c>
       <c r="FG7" t="n">
-        <v>5</v>
+        <v>4.907431671167503</v>
       </c>
       <c r="FH7" t="n">
-        <v>9.49192616132752</v>
+        <v>9.961884917035366</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -4098,25 +4121,28 @@
         <v>12528.72143463507</v>
       </c>
       <c r="FB8" t="n">
-        <v>-2993.649981237699</v>
+        <v>-2997.821486619121</v>
       </c>
       <c r="FC8" t="n">
-        <v>10958.17072906957</v>
+        <v>10983.85315313688</v>
       </c>
       <c r="FD8" t="n">
-        <v>888.19518078597</v>
+        <v>856.1670061951741</v>
       </c>
       <c r="FE8" t="n">
-        <v>-994.7409001874839</v>
+        <v>-957.8470027260973</v>
       </c>
       <c r="FF8" t="n">
-        <v>5698.877501999735</v>
+        <v>5733.978019558042</v>
       </c>
       <c r="FG8" t="n">
-        <v>1638.31749383137</v>
+        <v>1654.764134999066</v>
       </c>
       <c r="FH8" t="n">
-        <v>6087.055018945379</v>
+        <v>6698.533806720461</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>-2417.416473013883</v>
       </c>
     </row>
     <row r="9">
@@ -4594,25 +4620,28 @@
         <v>3612.62262479637</v>
       </c>
       <c r="FB9" t="n">
-        <v>4313.839743691029</v>
+        <v>4312.388674553124</v>
       </c>
       <c r="FC9" t="n">
-        <v>4499.234886766142</v>
+        <v>4487.758347866145</v>
       </c>
       <c r="FD9" t="n">
-        <v>978.6357902657551</v>
+        <v>992.3145650645533</v>
       </c>
       <c r="FE9" t="n">
-        <v>4301.130597697564</v>
+        <v>4350.012370690452</v>
       </c>
       <c r="FF9" t="n">
-        <v>4380.797782685084</v>
+        <v>4473.898260366186</v>
       </c>
       <c r="FG9" t="n">
-        <v>5313.09385021548</v>
+        <v>5371.972519773878</v>
       </c>
       <c r="FH9" t="n">
-        <v>3281.1588789476</v>
+        <v>3197.062247025121</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>3442.800557232296</v>
       </c>
     </row>
     <row r="10">
@@ -4994,10 +5023,10 @@
         <v>7278.48199238028</v>
       </c>
       <c r="FB10" t="n">
-        <v>-6342.999771270879</v>
+        <v>-6342.957002297579</v>
       </c>
       <c r="FC10" t="n">
-        <v>9743.695401198882</v>
+        <v>9743.720514880682</v>
       </c>
       <c r="FD10" t="n">
         <v>-1984.117149342607</v>
@@ -5006,13 +5035,16 @@
         <v>1952.243086336994</v>
       </c>
       <c r="FF10" t="n">
-        <v>4904.0778159813</v>
+        <v>4904.0538159813</v>
       </c>
       <c r="FG10" t="n">
-        <v>3989.501637341089</v>
+        <v>3989.537187341091</v>
       </c>
       <c r="FH10" t="n">
-        <v>1143.985896433788</v>
+        <v>1193.444140934152</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>-4761.404349487537</v>
       </c>
     </row>
     <row r="11">
@@ -5322,25 +5354,28 @@
         <v>1628.404801028774</v>
       </c>
       <c r="FB11" t="n">
-        <v>-638.0404147107465</v>
+        <v>-640.8036199275643</v>
       </c>
       <c r="FC11" t="n">
-        <v>-3409.462951291488</v>
+        <v>-3372.32910200598</v>
       </c>
       <c r="FD11" t="n">
-        <v>1875.659172557172</v>
+        <v>1829.952223167577</v>
       </c>
       <c r="FE11" t="n">
-        <v>-7449.570705392066</v>
+        <v>-7461.558580923565</v>
       </c>
       <c r="FF11" t="n">
-        <v>-3696.062575851161</v>
+        <v>-3754.038535973955</v>
       </c>
       <c r="FG11" t="n">
-        <v>-7688.027618769835</v>
+        <v>-7730.495197160537</v>
       </c>
       <c r="FH11" t="n">
-        <v>1489.667550433593</v>
+        <v>2135.784725630792</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>-1125.464082766288</v>
       </c>
     </row>
     <row r="12">
@@ -5650,25 +5685,28 @@
         <v>-221.2698625742605</v>
       </c>
       <c r="FB12" t="n">
-        <v>-2098.674493387225</v>
+        <v>-2181.210269333729</v>
       </c>
       <c r="FC12" t="n">
-        <v>1164.892483827667</v>
+        <v>1169.205228574596</v>
       </c>
       <c r="FD12" t="n">
-        <v>154.9411278885173</v>
+        <v>193.1011558234668</v>
       </c>
       <c r="FE12" t="n">
-        <v>-32.18142014089551</v>
+        <v>-72.39580533624155</v>
       </c>
       <c r="FF12" t="n">
-        <v>-561.6883878689923</v>
+        <v>-576.3341468445842</v>
       </c>
       <c r="FG12" t="n">
-        <v>-128.4227906741669</v>
+        <v>-145.3899825822834</v>
       </c>
       <c r="FH12" t="n">
-        <v>119.3319021586267</v>
+        <v>-988.5242444653886</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>95.21289807540461</v>
       </c>
     </row>
     <row r="13">
@@ -5982,6 +6020,9 @@
       <c r="FH13" t="n">
         <v>10690.12901574951</v>
       </c>
+      <c r="FI13" t="n">
+        <v>-843.9178265534397</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6309,6 +6350,9 @@
       </c>
       <c r="FH14" t="n">
         <v>146869.9899999999</v>
+      </c>
+      <c r="FI14" t="n">
+        <v>144905.38</v>
       </c>
     </row>
     <row r="15">
@@ -6602,25 +6646,28 @@
         <v>-1698.290305387432</v>
       </c>
       <c r="FB15" t="n">
-        <v>2766.614377969943</v>
+        <v>2853.32165929787</v>
       </c>
       <c r="FC15" t="n">
-        <v>1834.758677701235</v>
+        <v>1804.763508886995</v>
       </c>
       <c r="FD15" t="n">
-        <v>7029.975100263016</v>
+        <v>7023.843246918863</v>
       </c>
       <c r="FE15" t="n">
-        <v>6860.545413273241</v>
+        <v>6863.865901007201</v>
       </c>
       <c r="FF15" t="n">
-        <v>4238.978139391937</v>
+        <v>4217.22192356835</v>
       </c>
       <c r="FG15" t="n">
-        <v>4623.899820507572</v>
+        <v>4623.154707743491</v>
       </c>
       <c r="FH15" t="n">
-        <v>11393.4158968821</v>
+        <v>11827.15182244477</v>
+      </c>
+      <c r="FI15" t="n">
+        <v>8354.54228406485</v>
       </c>
     </row>
   </sheetData>
